--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3952109.680925369</v>
+        <v>3949565.088231084</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>116.8405921356976</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>19.72734108435057</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>90.06435309531078</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>366.1290083420826</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>23.94240680425892</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>20.18710179207736</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,22 +975,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>89.72490574397223</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074786</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>2.934209813011337</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>36.8589476715719</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589145</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>72.89889574101129</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>336.2479208849587</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>23.80394412152819</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,19 +1212,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>20.27697994470579</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>113.5548005097679</v>
       </c>
     </row>
     <row r="10">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.68046530976805</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>142.7102789975409</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
         <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T11" t="n">
         <v>199.022230457616</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560524</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>28.7518808581192</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,13 +1607,13 @@
         <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1658,13 +1658,13 @@
         <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>42.5313457611372</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471651</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223588</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722603</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,16 +4138,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>322.4426321268586</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>322.4426321268586</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>322.4426321268586</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>322.4426321268586</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>154.9708857107124</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985591</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262253</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433434</v>
+        <v>730.1757415093712</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433434</v>
+        <v>540.7559564928861</v>
       </c>
       <c r="U2" t="n">
-        <v>511.8624171433434</v>
+        <v>351.336171476401</v>
       </c>
       <c r="V2" t="n">
-        <v>511.8624171433434</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>511.8624171433434</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>511.8624171433434</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.4426321268586</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.6825636487948</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C3" t="n">
-        <v>469.7084696131274</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518761</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487948</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487948</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487948</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487948</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="X3" t="n">
-        <v>560.6825636487948</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="Y3" t="n">
-        <v>560.6825636487948</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>816.1853008586202</v>
+        <v>769.2632952533581</v>
       </c>
       <c r="C5" t="n">
-        <v>816.1853008586202</v>
+        <v>769.2632952533581</v>
       </c>
       <c r="D5" t="n">
-        <v>457.9196022518697</v>
+        <v>769.2632952533581</v>
       </c>
       <c r="E5" t="n">
-        <v>457.9196022518697</v>
+        <v>769.2632952533581</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226215</v>
+        <v>358.2773904637506</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675773</v>
+        <v>345.9017493182462</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017222</v>
+        <v>111.6705539017219</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746984</v>
+        <v>277.9807166746981</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030763</v>
+        <v>521.204941603077</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709186</v>
+        <v>823.5081935709194</v>
       </c>
       <c r="N5" t="n">
         <v>1135.316836582753</v>
@@ -4586,31 +4586,31 @@
         <v>1621.82224833276</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837886</v>
+        <v>1727.902815837887</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540655</v>
+        <v>1703.718566540656</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726301003</v>
+        <v>1703.718566540656</v>
       </c>
       <c r="T5" t="n">
-        <v>1542.419714389814</v>
+        <v>1491.859231677091</v>
       </c>
       <c r="U5" t="n">
-        <v>1542.419714389814</v>
+        <v>1491.859231677091</v>
       </c>
       <c r="V5" t="n">
-        <v>1542.419714389814</v>
+        <v>1491.859231677091</v>
       </c>
       <c r="W5" t="n">
-        <v>1189.6510591197</v>
+        <v>1139.090576406977</v>
       </c>
       <c r="X5" t="n">
-        <v>816.1853008586202</v>
+        <v>1139.090576406977</v>
       </c>
       <c r="Y5" t="n">
-        <v>816.1853008586202</v>
+        <v>1139.090576406977</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>607.8141681877958</v>
+        <v>428.3223248269012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.3611389066688</v>
+        <v>428.3223248269012</v>
       </c>
       <c r="D6" t="n">
-        <v>284.4267292454175</v>
+        <v>428.3223248269012</v>
       </c>
       <c r="E6" t="n">
-        <v>125.189274239962</v>
+        <v>269.0848698214457</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675773</v>
+        <v>269.0848698214457</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675773</v>
+        <v>132.0028829354055</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="J6" t="n">
         <v>61.66788464787554</v>
@@ -4668,28 +4668,28 @@
         <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906552</v>
+        <v>1401.100270703776</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906552</v>
+        <v>1258.309378699372</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906552</v>
+        <v>1062.768760419127</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906552</v>
+        <v>834.6536183746831</v>
       </c>
       <c r="V6" t="n">
-        <v>1445.878660906552</v>
+        <v>599.5015101429403</v>
       </c>
       <c r="W6" t="n">
-        <v>1191.641304178351</v>
+        <v>599.5015101429403</v>
       </c>
       <c r="X6" t="n">
-        <v>983.7898039728177</v>
+        <v>596.5376618469693</v>
       </c>
       <c r="Y6" t="n">
-        <v>776.0295052078638</v>
+        <v>596.5376618469693</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858016</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="C7" t="n">
-        <v>332.5877893114866</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="D7" t="n">
-        <v>182.4711498991508</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574711</v>
+        <v>64.24066662574712</v>
       </c>
       <c r="L7" t="n">
         <v>132.129986158412</v>
@@ -4744,31 +4744,31 @@
         <v>369.8190495858016</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040931</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040931</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040931</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858016</v>
+        <v>108.1933045400015</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858016</v>
+        <v>108.1933045400015</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858016</v>
+        <v>108.1933045400015</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858016</v>
+        <v>108.1933045400015</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858016</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858016</v>
+        <v>34.55805631675774</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>455.3122434854405</v>
+        <v>1055.625573309342</v>
       </c>
       <c r="C8" t="n">
-        <v>86.34972654502883</v>
+        <v>1055.625573309342</v>
       </c>
       <c r="D8" t="n">
-        <v>86.34972654502883</v>
+        <v>697.3598747025912</v>
       </c>
       <c r="E8" t="n">
-        <v>86.34972654502883</v>
+        <v>697.3598747025912</v>
       </c>
       <c r="F8" t="n">
-        <v>79.40422579582535</v>
+        <v>690.4143739533878</v>
       </c>
       <c r="G8" t="n">
-        <v>67.41358453963669</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
-        <v>67.41358453963669</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.507818430191</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232727</v>
+        <v>366.8168396232736</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>669.587892771189</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578733</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.28654013517</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V8" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="W8" t="n">
-        <v>1605.517173786454</v>
+        <v>1815.691171634543</v>
       </c>
       <c r="X8" t="n">
-        <v>1232.051415525374</v>
+        <v>1442.225413373463</v>
       </c>
       <c r="Y8" t="n">
-        <v>841.9120835495623</v>
+        <v>1442.225413373463</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>693.0104463829871</v>
+        <v>192.3036061993444</v>
       </c>
       <c r="C9" t="n">
-        <v>518.5574171018601</v>
+        <v>192.3036061993444</v>
       </c>
       <c r="D9" t="n">
-        <v>369.6230074406088</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3855524351533</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F9" t="n">
-        <v>63.8509944620383</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>504.1959674104403</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>824.1028628789501</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333486</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333486</v>
+        <v>1595.273638474385</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333486</v>
+        <v>1400.563316948361</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.227047333486</v>
+        <v>1172.461727081625</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.074939101743</v>
+        <v>937.3096188498821</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.837582373542</v>
+        <v>683.0722621216805</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.986082168009</v>
+        <v>475.2207619161477</v>
       </c>
       <c r="Y9" t="n">
-        <v>861.2257834030552</v>
+        <v>360.5189432194124</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307322</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183965</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981548</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377469</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>472.309103603367</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="R10" t="n">
-        <v>520.289347040599</v>
+        <v>411.1248508126826</v>
       </c>
       <c r="S10" t="n">
-        <v>520.289347040599</v>
+        <v>411.1248508126826</v>
       </c>
       <c r="T10" t="n">
-        <v>520.289347040599</v>
+        <v>187.5209935053062</v>
       </c>
       <c r="U10" t="n">
-        <v>520.289347040599</v>
+        <v>187.5209935053062</v>
       </c>
       <c r="V10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="W10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="X10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809315</v>
       </c>
     </row>
     <row r="11">
@@ -5021,67 +5021,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452622</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718139</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
         <v>1577.52840832642</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5355,19 +5355,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572603</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,25 +6002,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,25 +6124,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,28 +6458,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192616</v>
@@ -6707,19 +6707,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,19 +7075,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7169,16 +7169,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,10 +7491,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
         <v>680.0291294438176</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405086</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>106.0841272570752</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823103</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,16 +26026,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>619998.6049278002</v>
+        <v>619998.6049278001</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>619998.6049278001</v>
+        <v>619998.6049278002</v>
       </c>
     </row>
     <row r="12">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
         <v>807146.5996900059</v>
@@ -26329,31 +26329,31 @@
         <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="K2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253132</v>
+        <v>270592.3620253128</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231921</v>
+        <v>115410.0540231932</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742648</v>
+        <v>601443.2075742643</v>
       </c>
       <c r="F3" t="n">
-        <v>4.897497092315462e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854462</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881988</v>
+        <v>62913.6376588198</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197465</v>
+        <v>27875.25362197501</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
         <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687975</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.6400068797</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687975</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936822</v>
+        <v>76435.73471936824</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105837.4979023056</v>
+        <v>-105837.4979023055</v>
       </c>
       <c r="C6" t="n">
-        <v>267409.2501932558</v>
+        <v>267409.2501932562</v>
       </c>
       <c r="D6" t="n">
-        <v>446229.6438963212</v>
+        <v>446229.64389632</v>
       </c>
       <c r="E6" t="n">
-        <v>89144.22228495422</v>
+        <v>89109.48435951908</v>
       </c>
       <c r="F6" t="n">
-        <v>690587.4298592188</v>
+        <v>690552.6919337835</v>
       </c>
       <c r="G6" t="n">
-        <v>690587.4298592194</v>
+        <v>690552.6919337837</v>
       </c>
       <c r="H6" t="n">
-        <v>690587.4298592195</v>
+        <v>690552.6919337835</v>
       </c>
       <c r="I6" t="n">
-        <v>690587.4298592192</v>
+        <v>690552.6919337835</v>
       </c>
       <c r="J6" t="n">
-        <v>641522.4851306749</v>
+        <v>641487.747205239</v>
       </c>
       <c r="K6" t="n">
-        <v>627673.7922003996</v>
+        <v>627639.0542749639</v>
       </c>
       <c r="L6" t="n">
-        <v>662712.1762372449</v>
+        <v>662677.4383118087</v>
       </c>
       <c r="M6" t="n">
-        <v>533441.0493076214</v>
+        <v>533406.3113821862</v>
       </c>
       <c r="N6" t="n">
-        <v>690587.4298592192</v>
+        <v>690552.6919337838</v>
       </c>
       <c r="O6" t="n">
-        <v>690587.4298592194</v>
+        <v>690552.6919337836</v>
       </c>
       <c r="P6" t="n">
-        <v>690587.4298592196</v>
+        <v>690552.6919337837</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
         <v>758.8996292950623</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376849</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594716</v>
+        <v>431.9757039594717</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821577</v>
+        <v>210.4296883821573</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262176</v>
+        <v>94.81103524262267</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039893</v>
+        <v>514.2648358039888</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931518</v>
+        <v>244.4501167931514</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666916</v>
+        <v>110.1392527666927</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734847</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931518</v>
+        <v>244.4501167931514</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666912</v>
+        <v>110.1392527666927</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931518</v>
+        <v>244.4501167931514</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666916</v>
+        <v>110.1392527666927</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734847</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>290.0354536060139</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139.0484721057025</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988656</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871013</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038147</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>82.64414589300496</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681341</v>
+        <v>7.884010625681015</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>86.52244598482486</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098415</v>
       </c>
     </row>
     <row r="4">
@@ -27546,22 +27546,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.20510176849682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>16.4700942971624</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>16.60483332139802</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>92.85788772760031</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>189.5536397228514</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,22 +27695,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>55.34430664941165</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>43.3208508493751</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074786</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>202.8387753904661</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>130.3878734270559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589145</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>115.7603165166223</v>
@@ -27825,7 +27825,7 @@
         <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2443834913144</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>152.8107596480259</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>75.62281395866813</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>54.35966245555483</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>115.2302539023295</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>92.12789526753647</v>
       </c>
     </row>
     <row r="10">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>135.5663557888598</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>109.4273643262871</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.158026715497519e-12</v>
+        <v>7.034373084024991e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,10 +28612,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-5.09262390227752e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28627,10 +28627,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.480060416425422e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28864,10 +28864,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-5.09262390227752e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31215,31 +31215,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934784</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.2538401190909</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699498</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.519486191358</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475635</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017479</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153095</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419861</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,19 +31844,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963292</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,22 +32075,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,7 +32318,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,7 +32336,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>728.6709493241814</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32570,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,31 +32786,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>414.9172504145583</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,10 +33269,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33500,19 +33500,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>688.8020111197787</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34211,13 +34211,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,28 +34445,28 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>372.2834058662057</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974042</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109607</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.678047216999</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892929</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850741</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563548</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>107.8966131767809</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769702</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084182</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916455</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,7 +35966,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>597.3292372408481</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>283.575538331225</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,10 +36917,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37148,19 +37148,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>546.2057666753343</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
